--- a/StructureDefinition-ext-R5-DataRequirement.sort.xlsx
+++ b/StructureDefinition-ext-R5-DataRequirement.sort.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="141">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -449,15 +449,6 @@
   <si>
     <t xml:space="preserve">code
 </t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The possible sort directions, ascending or descending.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-sort-direction-for-R4</t>
   </si>
   <si>
     <t>base64Binary
@@ -817,8 +808,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="44.0859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="54.35546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2259,13 +2250,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2434,13 +2425,13 @@
         <v>77</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
